--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H2">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I2">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J2">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N2">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O2">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P2">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q2">
-        <v>104.8589412158333</v>
+        <v>222.9792795304753</v>
       </c>
       <c r="R2">
-        <v>943.7304709425</v>
+        <v>2006.813515774278</v>
       </c>
       <c r="S2">
-        <v>0.0007747786131292567</v>
+        <v>0.001760059280817028</v>
       </c>
       <c r="T2">
-        <v>0.0007747786131292566</v>
+        <v>0.001760059280817029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H3">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I3">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J3">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>428.209</v>
       </c>
       <c r="O3">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P3">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q3">
-        <v>214.6627417996667</v>
+        <v>346.9026733886667</v>
       </c>
       <c r="R3">
-        <v>1931.964676197</v>
+        <v>3122.124060498</v>
       </c>
       <c r="S3">
-        <v>0.00158609365547319</v>
+        <v>0.002738233216663132</v>
       </c>
       <c r="T3">
-        <v>0.00158609365547319</v>
+        <v>0.002738233216663133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H4">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I4">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J4">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N4">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O4">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P4">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q4">
-        <v>296.2967648890497</v>
+        <v>407.4095512767988</v>
       </c>
       <c r="R4">
-        <v>2666.670884001447</v>
+        <v>3666.685961491189</v>
       </c>
       <c r="S4">
-        <v>0.002189268687187163</v>
+        <v>0.003215836750966931</v>
       </c>
       <c r="T4">
-        <v>0.002189268687187163</v>
+        <v>0.003215836750966931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H5">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I5">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J5">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N5">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O5">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P5">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q5">
-        <v>237.7428734011104</v>
+        <v>191.1258370786207</v>
       </c>
       <c r="R5">
-        <v>2139.685860609993</v>
+        <v>1720.132533707586</v>
       </c>
       <c r="S5">
-        <v>0.001756627442536712</v>
+        <v>0.001508628084468152</v>
       </c>
       <c r="T5">
-        <v>0.001756627442536712</v>
+        <v>0.001508628084468153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>433.257233</v>
       </c>
       <c r="I6">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J6">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N6">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O6">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P6">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q6">
-        <v>10069.49984107694</v>
+        <v>13250.0026286362</v>
       </c>
       <c r="R6">
-        <v>90625.4985696925</v>
+        <v>119250.0236577258</v>
       </c>
       <c r="S6">
-        <v>0.07440121968918799</v>
+        <v>0.1045872519925953</v>
       </c>
       <c r="T6">
-        <v>0.07440121968918799</v>
+        <v>0.1045872519925954</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>433.257233</v>
       </c>
       <c r="I7">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J7">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>428.209</v>
       </c>
       <c r="O7">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P7">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q7">
         <v>20613.84960952189</v>
@@ -883,10 +883,10 @@
         <v>185524.646485697</v>
       </c>
       <c r="S7">
-        <v>0.1523109963398033</v>
+        <v>0.1627128645989133</v>
       </c>
       <c r="T7">
-        <v>0.1523109963398033</v>
+        <v>0.1627128645989134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>433.257233</v>
       </c>
       <c r="I8">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J8">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N8">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O8">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P8">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q8">
-        <v>28453.0836604651</v>
+        <v>24209.32400856239</v>
       </c>
       <c r="R8">
-        <v>256077.752944186</v>
+        <v>217883.9160770615</v>
       </c>
       <c r="S8">
-        <v>0.210233294768164</v>
+        <v>0.1910932957237093</v>
       </c>
       <c r="T8">
-        <v>0.210233294768164</v>
+        <v>0.1910932957237093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>433.257233</v>
       </c>
       <c r="I9">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J9">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N9">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O9">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P9">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q9">
-        <v>22830.21169365173</v>
+        <v>11357.1891030615</v>
       </c>
       <c r="R9">
-        <v>205471.9052428655</v>
+        <v>102214.7019275535</v>
       </c>
       <c r="S9">
-        <v>0.1686871863129583</v>
+        <v>0.08964656324537733</v>
       </c>
       <c r="T9">
-        <v>0.1686871863129583</v>
+        <v>0.08964656324537734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H10">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I10">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J10">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N10">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O10">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P10">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q10">
-        <v>6449.158201152498</v>
+        <v>10685.79700197373</v>
       </c>
       <c r="R10">
-        <v>58042.42381037249</v>
+        <v>96172.17301776362</v>
       </c>
       <c r="S10">
-        <v>0.04765134750555372</v>
+        <v>0.08434701298637998</v>
       </c>
       <c r="T10">
-        <v>0.04765134750555372</v>
+        <v>0.08434701298637999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H11">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I11">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J11">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>428.209</v>
       </c>
       <c r="O11">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P11">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q11">
-        <v>13202.440971721</v>
+        <v>16624.55612503067</v>
       </c>
       <c r="R11">
-        <v>118821.968745489</v>
+        <v>149621.005125276</v>
       </c>
       <c r="S11">
-        <v>0.09754980154659745</v>
+        <v>0.1312238713791553</v>
       </c>
       <c r="T11">
-        <v>0.09754980154659745</v>
+        <v>0.1312238713791553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H12">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I12">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J12">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N12">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O12">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P12">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q12">
-        <v>18223.19288276997</v>
+        <v>19524.21664818445</v>
       </c>
       <c r="R12">
-        <v>164008.7359449297</v>
+        <v>175717.9498336601</v>
       </c>
       <c r="S12">
-        <v>0.1346469833167412</v>
+        <v>0.1541119819952723</v>
       </c>
       <c r="T12">
-        <v>0.1346469833167412</v>
+        <v>0.1541119819952723</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H13">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I13">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J13">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N13">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O13">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P13">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q13">
-        <v>14621.94243030195</v>
+        <v>9159.290052219016</v>
       </c>
       <c r="R13">
-        <v>131597.4818727175</v>
+        <v>82433.61046997113</v>
       </c>
       <c r="S13">
-        <v>0.1080381715288059</v>
+        <v>0.07229771975247534</v>
       </c>
       <c r="T13">
-        <v>0.1080381715288059</v>
+        <v>0.07229771975247534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H14">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I14">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J14">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.72416666666666</v>
+        <v>91.74689966666665</v>
       </c>
       <c r="N14">
-        <v>209.1725</v>
+        <v>275.2406989999999</v>
       </c>
       <c r="O14">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="P14">
-        <v>0.122848749818507</v>
+        <v>0.1908387282982634</v>
       </c>
       <c r="Q14">
-        <v>2.8968299525</v>
+        <v>18.29433179353333</v>
       </c>
       <c r="R14">
-        <v>26.0714695725</v>
+        <v>164.6489861418</v>
       </c>
       <c r="S14">
-        <v>2.140401063605574E-05</v>
+        <v>0.0001444040384709989</v>
       </c>
       <c r="T14">
-        <v>2.140401063605574E-05</v>
+        <v>0.000144404038470999</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H15">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I15">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J15">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>428.209</v>
       </c>
       <c r="O15">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="P15">
-        <v>0.2514907089174394</v>
+        <v>0.296899627499751</v>
       </c>
       <c r="Q15">
-        <v>5.930266441000001</v>
+        <v>28.46162486666667</v>
       </c>
       <c r="R15">
-        <v>53.372397969</v>
+        <v>256.1546238</v>
       </c>
       <c r="S15">
-        <v>4.381737556540555E-05</v>
+        <v>0.000224658305019157</v>
       </c>
       <c r="T15">
-        <v>4.381737556540555E-05</v>
+        <v>0.000224658305019157</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H16">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I16">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J16">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>197.0174863333333</v>
+        <v>167.6324513333334</v>
       </c>
       <c r="N16">
-        <v>591.052459</v>
+        <v>502.8973540000001</v>
       </c>
       <c r="O16">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="P16">
-        <v>0.347130027442921</v>
+        <v>0.348684957750095</v>
       </c>
       <c r="Q16">
-        <v>8.185485504691</v>
+        <v>33.42591079586668</v>
       </c>
       <c r="R16">
-        <v>73.669369542219</v>
+        <v>300.8331971628</v>
       </c>
       <c r="S16">
-        <v>6.048067082863617E-05</v>
+        <v>0.0002638432801465149</v>
       </c>
       <c r="T16">
-        <v>6.048067082863617E-05</v>
+        <v>0.000263843280146515</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H17">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I17">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J17">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>158.0830736666667</v>
+        <v>78.64050433333334</v>
       </c>
       <c r="N17">
-        <v>474.249221</v>
+        <v>235.921513</v>
       </c>
       <c r="O17">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="P17">
-        <v>0.2785305138211326</v>
+        <v>0.1635766864518907</v>
       </c>
       <c r="Q17">
-        <v>6.567877461629001</v>
+        <v>15.68091656406667</v>
       </c>
       <c r="R17">
-        <v>59.110897154661</v>
+        <v>141.1282490766</v>
       </c>
       <c r="S17">
-        <v>4.85285368316827E-05</v>
+        <v>0.000123775369569848</v>
       </c>
       <c r="T17">
-        <v>4.85285368316827E-05</v>
+        <v>0.000123775369569848</v>
       </c>
     </row>
   </sheetData>
